--- a/Sujeto_1/IGAR.xlsx
+++ b/Sujeto_1/IGAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64909537-9173-884D-A10B-5E91314566D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336F13C9-346B-4849-833B-93176F03EAC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>Value (g/min)</t>
   </si>
 </sst>
 </file>
@@ -434,10 +434,13 @@
   <dimension ref="A1:B8891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
